--- a/reports/resnet18_23_no_MMTM/prediction/4/probability_test_4.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/4/probability_test_4.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9916558265686035</v>
+        <v>0.9551982283592224</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008344235830008984</v>
+        <v>0.04480179399251938</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2653163373470306</v>
+        <v>0.4361859261989594</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7346836924552917</v>
+        <v>0.5638140439987183</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4382855594158173</v>
+        <v>0.5630836486816406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5617144107818604</v>
+        <v>0.4369162917137146</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3727468252182007</v>
+        <v>0.3862466812133789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6272531747817993</v>
+        <v>0.6137533187866211</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8925660848617554</v>
+        <v>0.7493098974227905</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1074339002370834</v>
+        <v>0.2506900727748871</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6982600688934326</v>
+        <v>0.840901255607605</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3017398715019226</v>
+        <v>0.1590986996889114</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3629416227340698</v>
+        <v>0.3248376250267029</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6370583772659302</v>
+        <v>0.6751623153686523</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5868988633155823</v>
+        <v>0.6107865571975708</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4131011664867401</v>
+        <v>0.389213502407074</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06288764625787735</v>
+        <v>0.1330093890428543</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9371123313903809</v>
+        <v>0.8669906258583069</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1269864141941071</v>
+        <v>0.1123577728867531</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8730136156082153</v>
+        <v>0.8876422047615051</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4091370105743408</v>
+        <v>0.3962013125419617</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5908629894256592</v>
+        <v>0.6037986278533936</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1445056647062302</v>
+        <v>0.159327894449234</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8554942607879639</v>
+        <v>0.8406720757484436</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06630184501409531</v>
+        <v>0.0458437018096447</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9336981773376465</v>
+        <v>0.9541562795639038</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09475481510162354</v>
+        <v>0.1484469622373581</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9052451848983765</v>
+        <v>0.8515530824661255</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1913156509399414</v>
+        <v>0.3418505191802979</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8086843490600586</v>
+        <v>0.6581494808197021</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1114625111222267</v>
+        <v>0.186051994562149</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8885374665260315</v>
+        <v>0.8139479756355286</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4165726602077484</v>
+        <v>0.4728831052780151</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5834273099899292</v>
+        <v>0.5271168947219849</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2125716805458069</v>
+        <v>0.4040278494358063</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7874283194541931</v>
+        <v>0.5959721803665161</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6220742464065552</v>
+        <v>0.4395962655544281</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3779258131980896</v>
+        <v>0.5604037046432495</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.235059916973114</v>
+        <v>0.2121166884899139</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7649400234222412</v>
+        <v>0.7878832817077637</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
